--- a/Extras/LanguageTAT.xlsx
+++ b/Extras/LanguageTAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EMac/Dropbox/CodingBootCamp/TheAdaptiveTraveler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EMac/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B6938-CBFF-DA4F-8A18-EE09CA74C77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747F387-479D-AE41-8B85-1E4D390C6B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="460" windowWidth="18400" windowHeight="22580" xr2:uid="{0BCDDFFC-5DDD-AF42-B1EA-D6FEC72B110E}"/>
+    <workbookView xWindow="22160" yWindow="460" windowWidth="29040" windowHeight="25620" xr2:uid="{0BCDDFFC-5DDD-AF42-B1EA-D6FEC72B110E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="290">
   <si>
     <t>English - Frequent Words</t>
   </si>
@@ -285,9 +285,6 @@
     <t>use - verb, noun</t>
   </si>
   <si>
-    <t>two - noun</t>
-  </si>
-  <si>
     <t>how - adverb</t>
   </si>
   <si>
@@ -334,19 +331,612 @@
   </si>
   <si>
     <t>us - pronoun</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>vara</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>år (ett)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>på</t>
+  </si>
+  <si>
+    <t>hon</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>från</t>
+  </si>
+  <si>
+    <t>också/även</t>
+  </si>
+  <si>
+    <t>alla</t>
+  </si>
+  <si>
+    <t>jag</t>
+  </si>
+  <si>
+    <t>det</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>du/ni</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>göra</t>
+  </si>
+  <si>
+    <t>efter</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>honom</t>
+  </si>
+  <si>
+    <t>inte</t>
+  </si>
+  <si>
+    <t>(which/that) - som</t>
+  </si>
+  <si>
+    <t>tycka</t>
+  </si>
+  <si>
+    <t>bara</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>gå</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>andra</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>hur</t>
+  </si>
+  <si>
+    <t>när</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>här</t>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>much/very</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>mycket</t>
+  </si>
+  <si>
+    <t>något</t>
+  </si>
+  <si>
+    <t>lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ju</t>
+  </si>
+  <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>tro</t>
+  </si>
+  <si>
+    <t>vad</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>bli</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ha </t>
+  </si>
+  <si>
+    <t>someone</t>
+  </si>
+  <si>
+    <t>någon</t>
+  </si>
+  <si>
+    <t>över</t>
+  </si>
+  <si>
+    <t>maybe/perhaps</t>
+  </si>
+  <si>
+    <t>kanske</t>
+  </si>
+  <si>
+    <t>a few</t>
+  </si>
+  <si>
+    <t>några</t>
+  </si>
+  <si>
+    <t>veta</t>
+  </si>
+  <si>
+    <t>komma</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>måste</t>
+  </si>
+  <si>
+    <t>eller</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>idag</t>
+  </si>
+  <si>
+    <t>dag</t>
+  </si>
+  <si>
+    <t>få</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>där</t>
+  </si>
+  <si>
+    <t>även</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>samma</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>utan</t>
+  </si>
+  <si>
+    <t>towards/against</t>
+  </si>
+  <si>
+    <t>mot</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>själv</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>sen</t>
+  </si>
+  <si>
+    <t>vilja</t>
+  </si>
+  <si>
+    <t>must/going to/want</t>
+  </si>
+  <si>
+    <t>skola</t>
+  </si>
+  <si>
+    <t>kunna</t>
+  </si>
+  <si>
+    <t>och</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>innan</t>
+  </si>
+  <si>
+    <t>så</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>aldrig</t>
+  </si>
+  <si>
+    <t>child/kid</t>
+  </si>
+  <si>
+    <t>barn(ett)</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>många</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Sverige</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ör</t>
+    </r>
+  </si>
+  <si>
+    <t>den/denna/detta</t>
+  </si>
+  <si>
+    <t>de/dom</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>säga</t>
+  </si>
+  <si>
+    <t>oneself, himself, herself, itself</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>än</t>
+  </si>
+  <si>
+    <t>väl</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>då/sen</t>
+  </si>
+  <si>
+    <t>enough,probably,indeed, truly</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>probably, I guess, right</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>henne</t>
+  </si>
+  <si>
+    <t>kommer</t>
+  </si>
+  <si>
+    <t>skulle</t>
+  </si>
+  <si>
+    <t>deras</t>
+  </si>
+  <si>
+    <t>upp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ut </t>
+  </si>
+  <si>
+    <t>vem</t>
+  </si>
+  <si>
+    <t>liknande</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>nej</t>
+  </si>
+  <si>
+    <t>precis</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>vissa</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>vänster</t>
+  </si>
+  <si>
+    <t>ända</t>
+  </si>
+  <si>
+    <t>straight (ahead)</t>
+  </si>
+  <si>
+    <t>rakt fram</t>
+  </si>
+  <si>
+    <t>Bus (station)</t>
+  </si>
+  <si>
+    <t>Buss(tation)</t>
+  </si>
+  <si>
+    <t>Train (station)</t>
+  </si>
+  <si>
+    <t>Tåg(station)</t>
+  </si>
+  <si>
+    <t>"till flygplatsen"</t>
+  </si>
+  <si>
+    <t>"to the airport"</t>
+  </si>
+  <si>
+    <t>"to the train station"</t>
+  </si>
+  <si>
+    <t>"till tågstationen"</t>
+  </si>
+  <si>
+    <t>"till busstationen"</t>
+  </si>
+  <si>
+    <t>"to the bus station"</t>
+  </si>
+  <si>
+    <t>Phrases (Eng)</t>
+  </si>
+  <si>
+    <t>Fraser (SV)</t>
+  </si>
+  <si>
+    <t>"how much does it cost?"</t>
+  </si>
+  <si>
+    <t>"Hur mycket kostar det"</t>
+  </si>
+  <si>
+    <t>"I would like…"</t>
+  </si>
+  <si>
+    <t>"jag skulle vilja"</t>
+  </si>
+  <si>
+    <t>"Thank you"</t>
+  </si>
+  <si>
+    <t>"tack"</t>
+  </si>
+  <si>
+    <t>Please</t>
+  </si>
+  <si>
+    <t>snälla du</t>
+  </si>
+  <si>
+    <t>"where is…"</t>
+  </si>
+  <si>
+    <t>"var är…"</t>
+  </si>
+  <si>
+    <t>"how far…?"</t>
+  </si>
+  <si>
+    <t>"hur långt…?"</t>
+  </si>
+  <si>
+    <t>"how long…?"</t>
+  </si>
+  <si>
+    <t>"what time…?"</t>
+  </si>
+  <si>
+    <t>"hur länge…?"</t>
+  </si>
+  <si>
+    <t>"vilken tid…?"</t>
+  </si>
+  <si>
+    <t>"kan jag få…?"</t>
+  </si>
+  <si>
+    <t>"may I have…?"</t>
+  </si>
+  <si>
+    <t>"where is the bathroom?"</t>
+  </si>
+  <si>
+    <t>"Vart är badrummet?"</t>
+  </si>
+  <si>
+    <t>"check please" (bill)</t>
+  </si>
+  <si>
+    <t>"snälla fakturera"</t>
+  </si>
+  <si>
+    <t>"do you accept credit cards?"</t>
+  </si>
+  <si>
+    <t>"tar du emot kreditkort"</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>post office</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>postkontor</t>
+  </si>
+  <si>
+    <t>hotell</t>
+  </si>
+  <si>
+    <t>"my name is…"</t>
+  </si>
+  <si>
+    <t>"do you speak English?"</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>förlåt</t>
+  </si>
+  <si>
+    <t>"mitt namn är..."</t>
+  </si>
+  <si>
+    <t>"pratar du engelska?"</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>adjö</t>
+  </si>
+  <si>
+    <t>"I don't understand…"</t>
+  </si>
+  <si>
+    <t>"Jag förstår inte…"</t>
+  </si>
+  <si>
+    <t>"can you help me?"</t>
+  </si>
+  <si>
+    <t>"Kan du hjälpa mig?"</t>
+  </si>
+  <si>
+    <t>numbers 1 through 20</t>
+  </si>
+  <si>
+    <t>say these in SV</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,10 +947,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -369,8 +985,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,529 +1319,2009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC10A5E-2706-C745-8FE3-E0BE21DBBBC7}">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="20" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="20" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="20" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="20" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="20" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B61" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="B93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" ht="20" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" ht="20" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" ht="20" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="20" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0" top="0.5" bottom="0.25" header="0.05" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;CTop 100 Most Useful Words in Each Language</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>